--- a/wikiimages/Puzzle-5.AGAIN.xlsx
+++ b/wikiimages/Puzzle-5.AGAIN.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>white_king</t>
   </si>
@@ -119,61 +119,16 @@
     <t>PIECE</t>
   </si>
   <si>
-    <t>2.bxd5,f6</t>
-  </si>
-  <si>
-    <t>1.nd5 bxd5</t>
-  </si>
-  <si>
-    <t>3.rxfb,bxf6</t>
-  </si>
-  <si>
-    <t>4. bxf6</t>
-  </si>
-  <si>
-    <t>1.rxf7,rxf7</t>
-  </si>
-  <si>
-    <t>2.bxf7,kxf7</t>
-  </si>
-  <si>
-    <t>3.qxh7,kf6</t>
-  </si>
-  <si>
-    <t>4.rf1</t>
-  </si>
-  <si>
-    <t>1.bxf7,rxf7</t>
-  </si>
-  <si>
-    <t>2.rxf7,kxf7</t>
-  </si>
-  <si>
-    <t>3.qg7,ke6</t>
-  </si>
-  <si>
-    <t>4.d5</t>
-  </si>
-  <si>
-    <t>1.re1,nd6</t>
-  </si>
-  <si>
-    <t>2.ba4,qb8</t>
-  </si>
-  <si>
-    <t>3.rxf7,kxf7</t>
-  </si>
-  <si>
-    <t>1.qxf8,kxf8</t>
-  </si>
-  <si>
-    <t>2.rxf7,kg8</t>
-  </si>
-  <si>
-    <t>3.rg7,kh8</t>
-  </si>
-  <si>
-    <t>4.rg8</t>
+    <t>1.nd5,bxd5,2.bxd5,f6,3.rxfb,bxf6,4.bxf6</t>
+  </si>
+  <si>
+    <t>1.bxf7,rxf7,2.rxf7,kxf7,3.qg7,ke6,4.d5</t>
+  </si>
+  <si>
+    <t>1.qxf8,kxf8,2.rxf7,kg8,3.rg7,kh8,4.rg8</t>
+  </si>
+  <si>
+    <t>1.rxf7,rxf7,2.bxf7,kxf7,3.qxh7,kf6,4.rf1</t>
   </si>
 </sst>
 </file>
@@ -252,7 +207,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dhvnish" refreshedDate="42365.559746643521" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42369.932053819444" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -286,16 +241,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
-        <s v="black_rook"/>
+      <sharedItems containsBlank="1" count="12">
         <m/>
         <s v="black_queen"/>
+        <s v="white_knight"/>
+        <s v="black_rook"/>
         <s v="black_king"/>
         <s v="black_pawn"/>
         <s v="black_bishop"/>
-        <s v="white_knight"/>
+        <s v="white_pawn"/>
         <s v="white_queen"/>
-        <s v="white_pawn"/>
+        <s v="white_bishop"/>
         <s v="white_rook"/>
         <s v="white_king"/>
       </sharedItems>
@@ -319,172 +275,172 @@
   <r>
     <x v="0"/>
     <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="2"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="4"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -494,148 +450,148 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <x v="8"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="6"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="7"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
-    <x v="9"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="7"/>
     <x v="6"/>
-    <x v="10"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="7"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -685,7 +641,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C65" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C65" totalsRowShown="0">
   <autoFilter ref="A1:C65">
     <filterColumn colId="2">
       <customFilters>
@@ -991,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,15 +967,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1057,35 +1010,38 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1131,31 +1087,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
         <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1220,12 +1179,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
         <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1236,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1263,23 +1225,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
         <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1290,15 +1252,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
         <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1325,23 +1284,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37">
         <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1387,39 +1346,51 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
       <c r="B46">
         <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1462,18 +1433,15 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
       <c r="B52">
         <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1492,14 +1460,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
       <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1525,16 +1490,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -1560,12 +1522,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
       <c r="B62">
         <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1629,7 +1594,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1607,7 @@
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="B3" sqref="B3:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,6 +1650,9 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
@@ -1941,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,76 +1949,71 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/wikiimages/Puzzle-5.AGAIN.xlsx
+++ b/wikiimages/Puzzle-5.AGAIN.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet7" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>white_king</t>
   </si>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42369.932053819444" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42374.783843865742" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -242,16 +242,16 @@
     </cacheField>
     <cacheField name="Value" numFmtId="0">
       <sharedItems containsBlank="1" count="12">
+        <s v="black_rook"/>
         <m/>
         <s v="black_queen"/>
         <s v="white_knight"/>
-        <s v="black_rook"/>
         <s v="black_king"/>
         <s v="black_pawn"/>
         <s v="black_bishop"/>
-        <s v="white_pawn"/>
         <s v="white_queen"/>
         <s v="white_bishop"/>
+        <s v="white_pawn"/>
         <s v="white_rook"/>
         <s v="white_king"/>
       </sharedItems>
@@ -275,27 +275,27 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <x v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -305,7 +305,7 @@
   <r>
     <x v="0"/>
     <x v="7"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -340,237 +340,237 @@
   <r>
     <x v="1"/>
     <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="7"/>
     <x v="7"/>
   </r>
   <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
     <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="6"/>
     <x v="0"/>
-  </r>
-  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="9"/>
+  </r>
+  <r>
     <x v="7"/>
     <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="10"/>
+  </r>
+  <r>
     <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
-    <x v="9"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -585,13 +585,13 @@
   <r>
     <x v="7"/>
     <x v="7"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -641,7 +641,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C65" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C65" totalsRowShown="0">
   <autoFilter ref="A1:C65">
     <filterColumn colId="2">
       <customFilters>
@@ -650,8 +650,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="X"/>
-    <tableColumn id="2" name="Y"/>
+    <tableColumn id="1" name="Y"/>
+    <tableColumn id="2" name="X"/>
     <tableColumn id="3" name="PIECE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:C64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,21 +958,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1125,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1300,17 +1303,14 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1338,16 +1338,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1357,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,29 +1365,23 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
       <c r="B46">
         <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1417,13 +1408,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -1433,15 +1427,18 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
       <c r="B52">
         <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1490,13 +1487,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -1522,15 +1522,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
       <c r="B62">
         <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,7 +1591,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1606,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,14 +1650,16 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
@@ -1700,7 +1699,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K5" s="3">
         <v>7</v>
@@ -1763,11 +1762,9 @@
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
@@ -1782,21 +1779,15 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
@@ -1811,11 +1802,15 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
@@ -1836,13 +1831,13 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1911,7 +1906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
